--- a/fixtures/xlsx/charts-ex/waterfall.xlsx
+++ b/fixtures/xlsx/charts-ex/waterfall.xlsx
@@ -61,6 +61,7 @@
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <cx:chart>
+    <cx:title>Waterfall</cx:title>
     <cx:plotArea>
       <cx:waterfallChart>
         <cx:ser>

--- a/fixtures/xlsx/charts-ex/waterfall.xlsx
+++ b/fixtures/xlsx/charts-ex/waterfall.xlsx
@@ -65,6 +65,8 @@
     <cx:plotArea>
       <cx:waterfallChart>
         <cx:ser>
+          <cx:idx val="0"/>
+          <cx:order val="0"/>
           <cx:tx>
             <cx:strRef>
               <cx:f>Sheet1!$B$1</cx:f>
@@ -97,6 +99,7 @@
             <cx:numRef>
               <cx:f>Sheet1!$B$2:$B$4</cx:f>
               <cx:numCache>
+                <cx:formatCode>General</cx:formatCode>
                 <cx:ptCount val="3"/>
                 <cx:pt idx="0">
                   <cx:v>10</cx:v>
